--- a/DateBase/orders/Dang Nguyen_2025-7-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-22.xlsx
@@ -997,6 +997,9 @@
       <c r="G2" t="str">
         <v>015368610152055101010101510102051010101010105510109.514106101100.529109664101055510556105141115</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
